--- a/DateBase/orders/Dang Nguyen_2024-11-15.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-15.xlsx
@@ -507,6 +507,9 @@
       <c r="C9" t="str">
         <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
+      <c r="F9" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -627,7 +630,10 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0605060101020400915488410</v>
+        <v>06050601010204010915488410</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>
